--- a/02-output/wine_country_stats/Q2E_US.xlsx
+++ b/02-output/wine_country_stats/Q2E_US.xlsx
@@ -25,52 +25,52 @@
     <t>price mean</t>
   </si>
   <si>
+    <t>price std</t>
+  </si>
+  <si>
+    <t>price min</t>
+  </si>
+  <si>
+    <t>price 25%</t>
+  </si>
+  <si>
+    <t>price 50%</t>
+  </si>
+  <si>
+    <t>price 75%</t>
+  </si>
+  <si>
+    <t>price max</t>
+  </si>
+  <si>
     <t>price median</t>
   </si>
   <si>
-    <t>price std</t>
-  </si>
-  <si>
-    <t>price min</t>
-  </si>
-  <si>
-    <t>price 25%</t>
-  </si>
-  <si>
-    <t>price 50%</t>
-  </si>
-  <si>
-    <t>price 75%</t>
-  </si>
-  <si>
-    <t>price max</t>
-  </si>
-  <si>
     <t>points count</t>
   </si>
   <si>
     <t>points mean</t>
   </si>
   <si>
+    <t>points std</t>
+  </si>
+  <si>
+    <t>points min</t>
+  </si>
+  <si>
+    <t>points 25%</t>
+  </si>
+  <si>
+    <t>points 50%</t>
+  </si>
+  <si>
+    <t>points 75%</t>
+  </si>
+  <si>
+    <t>points max</t>
+  </si>
+  <si>
     <t>points median</t>
-  </si>
-  <si>
-    <t>points std</t>
-  </si>
-  <si>
-    <t>points min</t>
-  </si>
-  <si>
-    <t>points 25%</t>
-  </si>
-  <si>
-    <t>points 50%</t>
-  </si>
-  <si>
-    <t>points 75%</t>
-  </si>
-  <si>
-    <t>points max</t>
   </si>
   <si>
     <t>America</t>
@@ -516,16 +516,15 @@
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="10" width="9.7109375" customWidth="1"/>
+    <col min="3" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
     <col min="11" max="11" width="3.7109375" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" customWidth="1"/>
     <col min="13" max="13" width="17.7109375" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" customWidth="1"/>
-    <col min="16" max="20" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1"/>
+    <col min="15" max="19" width="10.7109375" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -599,25 +598,25 @@
         <v>21.33928571428572</v>
       </c>
       <c r="D2">
+        <v>13.9899662560049</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>11</v>
+      </c>
+      <c r="G2">
         <v>15.5</v>
       </c>
-      <c r="E2">
-        <v>13.9899662560049</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>11</v>
-      </c>
       <c r="H2">
+        <v>27</v>
+      </c>
+      <c r="I2">
+        <v>75</v>
+      </c>
+      <c r="J2">
         <v>15.5</v>
-      </c>
-      <c r="I2">
-        <v>27</v>
-      </c>
-      <c r="J2">
-        <v>75</v>
       </c>
       <c r="L2">
         <v>56</v>
@@ -626,25 +625,25 @@
         <v>86.69642857142857</v>
       </c>
       <c r="N2">
+        <v>2.096921057664766</v>
+      </c>
+      <c r="O2">
+        <v>82</v>
+      </c>
+      <c r="P2">
+        <v>85</v>
+      </c>
+      <c r="Q2">
         <v>86</v>
       </c>
-      <c r="O2">
-        <v>2.096921057664766</v>
-      </c>
-      <c r="P2">
-        <v>82</v>
-      </c>
-      <c r="Q2">
-        <v>85</v>
-      </c>
       <c r="R2">
+        <v>88</v>
+      </c>
+      <c r="S2">
+        <v>94</v>
+      </c>
+      <c r="T2">
         <v>86</v>
-      </c>
-      <c r="S2">
-        <v>88</v>
-      </c>
-      <c r="T2">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -658,25 +657,25 @@
         <v>31.5</v>
       </c>
       <c r="D3">
+        <v>10.1332037471778</v>
+      </c>
+      <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>23</v>
+      </c>
+      <c r="G3">
         <v>31</v>
       </c>
-      <c r="E3">
-        <v>10.1332037471778</v>
-      </c>
-      <c r="F3">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>23</v>
-      </c>
       <c r="H3">
+        <v>38</v>
+      </c>
+      <c r="I3">
+        <v>54</v>
+      </c>
+      <c r="J3">
         <v>31</v>
-      </c>
-      <c r="I3">
-        <v>38</v>
-      </c>
-      <c r="J3">
-        <v>54</v>
       </c>
       <c r="L3">
         <v>34</v>
@@ -685,25 +684,25 @@
         <v>84.97058823529412</v>
       </c>
       <c r="N3">
+        <v>1.507261094545376</v>
+      </c>
+      <c r="O3">
+        <v>82</v>
+      </c>
+      <c r="P3">
+        <v>84</v>
+      </c>
+      <c r="Q3">
         <v>85</v>
       </c>
-      <c r="O3">
-        <v>1.507261094545376</v>
-      </c>
-      <c r="P3">
-        <v>82</v>
-      </c>
-      <c r="Q3">
-        <v>84</v>
-      </c>
       <c r="R3">
+        <v>86</v>
+      </c>
+      <c r="S3">
+        <v>88</v>
+      </c>
+      <c r="T3">
         <v>85</v>
-      </c>
-      <c r="S3">
-        <v>86</v>
-      </c>
-      <c r="T3">
-        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -717,25 +716,25 @@
         <v>39.32059842785902</v>
       </c>
       <c r="D4">
+        <v>30.36837254651454</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>22</v>
+      </c>
+      <c r="G4">
         <v>34</v>
       </c>
-      <c r="E4">
-        <v>30.36837254651454</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>22</v>
-      </c>
       <c r="H4">
+        <v>48</v>
+      </c>
+      <c r="I4">
+        <v>2013</v>
+      </c>
+      <c r="J4">
         <v>34</v>
-      </c>
-      <c r="I4">
-        <v>48</v>
-      </c>
-      <c r="J4">
-        <v>2013</v>
       </c>
       <c r="L4">
         <v>35493</v>
@@ -744,25 +743,25 @@
         <v>88.66089087989181</v>
       </c>
       <c r="N4">
+        <v>3.249212002670083</v>
+      </c>
+      <c r="O4">
+        <v>80</v>
+      </c>
+      <c r="P4">
+        <v>86</v>
+      </c>
+      <c r="Q4">
         <v>89</v>
       </c>
-      <c r="O4">
-        <v>3.249212002670083</v>
-      </c>
-      <c r="P4">
-        <v>80</v>
-      </c>
-      <c r="Q4">
-        <v>86</v>
-      </c>
       <c r="R4">
+        <v>91</v>
+      </c>
+      <c r="S4">
+        <v>100</v>
+      </c>
+      <c r="T4">
         <v>89</v>
-      </c>
-      <c r="S4">
-        <v>91</v>
-      </c>
-      <c r="T4">
-        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -776,25 +775,25 @@
         <v>33.25757575757576</v>
       </c>
       <c r="D5">
+        <v>16.58665877798327</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="G5">
         <v>30</v>
       </c>
-      <c r="E5">
-        <v>16.58665877798327</v>
-      </c>
-      <c r="F5">
-        <v>14</v>
-      </c>
-      <c r="G5">
-        <v>25</v>
-      </c>
       <c r="H5">
+        <v>35.75</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
         <v>30</v>
-      </c>
-      <c r="I5">
-        <v>35.75</v>
-      </c>
-      <c r="J5">
-        <v>100</v>
       </c>
       <c r="L5">
         <v>66</v>
@@ -803,25 +802,25 @@
         <v>86.1969696969697</v>
       </c>
       <c r="N5">
+        <v>1.816333559417873</v>
+      </c>
+      <c r="O5">
+        <v>82</v>
+      </c>
+      <c r="P5">
+        <v>85</v>
+      </c>
+      <c r="Q5">
         <v>86</v>
       </c>
-      <c r="O5">
-        <v>1.816333559417873</v>
-      </c>
-      <c r="P5">
-        <v>82</v>
-      </c>
-      <c r="Q5">
-        <v>85</v>
-      </c>
       <c r="R5">
+        <v>87</v>
+      </c>
+      <c r="S5">
+        <v>91</v>
+      </c>
+      <c r="T5">
         <v>86</v>
-      </c>
-      <c r="S5">
-        <v>87</v>
-      </c>
-      <c r="T5">
-        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -835,25 +834,25 @@
         <v>15.33333333333333</v>
       </c>
       <c r="D6">
+        <v>4.509249752822894</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>13</v>
+      </c>
+      <c r="G6">
         <v>15</v>
       </c>
-      <c r="E6">
-        <v>4.509249752822894</v>
-      </c>
-      <c r="F6">
-        <v>11</v>
-      </c>
-      <c r="G6">
-        <v>13</v>
-      </c>
       <c r="H6">
+        <v>17.5</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6">
         <v>15</v>
-      </c>
-      <c r="I6">
-        <v>17.5</v>
-      </c>
-      <c r="J6">
-        <v>20</v>
       </c>
       <c r="L6">
         <v>3</v>
@@ -862,10 +861,10 @@
         <v>84</v>
       </c>
       <c r="N6">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="P6">
         <v>84</v>
@@ -894,25 +893,25 @@
         <v>20.86096256684492</v>
       </c>
       <c r="D7">
+        <v>9.097555215355424</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
         <v>19</v>
       </c>
-      <c r="E7">
-        <v>9.097555215355424</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7">
-        <v>15</v>
-      </c>
       <c r="H7">
+        <v>27</v>
+      </c>
+      <c r="I7">
+        <v>55</v>
+      </c>
+      <c r="J7">
         <v>19</v>
-      </c>
-      <c r="I7">
-        <v>27</v>
-      </c>
-      <c r="J7">
-        <v>55</v>
       </c>
       <c r="L7">
         <v>187</v>
@@ -921,25 +920,25 @@
         <v>86.62032085561498</v>
       </c>
       <c r="N7">
+        <v>2.089454809722989</v>
+      </c>
+      <c r="O7">
+        <v>80</v>
+      </c>
+      <c r="P7">
+        <v>85</v>
+      </c>
+      <c r="Q7">
         <v>87</v>
       </c>
-      <c r="O7">
-        <v>2.089454809722989</v>
-      </c>
-      <c r="P7">
-        <v>80</v>
-      </c>
-      <c r="Q7">
-        <v>85</v>
-      </c>
       <c r="R7">
+        <v>88</v>
+      </c>
+      <c r="S7">
+        <v>91</v>
+      </c>
+      <c r="T7">
         <v>87</v>
-      </c>
-      <c r="S7">
-        <v>88</v>
-      </c>
-      <c r="T7">
-        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -953,25 +952,25 @@
         <v>18</v>
       </c>
       <c r="D8">
+        <v>2.82842712474619</v>
+      </c>
+      <c r="E8">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>17</v>
+      </c>
+      <c r="G8">
         <v>18</v>
       </c>
-      <c r="E8">
-        <v>2.82842712474619</v>
-      </c>
-      <c r="F8">
-        <v>16</v>
-      </c>
-      <c r="G8">
-        <v>17</v>
-      </c>
       <c r="H8">
+        <v>19</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+      <c r="J8">
         <v>18</v>
-      </c>
-      <c r="I8">
-        <v>19</v>
-      </c>
-      <c r="J8">
-        <v>20</v>
       </c>
       <c r="L8">
         <v>2</v>
@@ -980,25 +979,25 @@
         <v>82.5</v>
       </c>
       <c r="N8">
+        <v>2.121320343559642</v>
+      </c>
+      <c r="O8">
+        <v>81</v>
+      </c>
+      <c r="P8">
+        <v>81.75</v>
+      </c>
+      <c r="Q8">
         <v>82.5</v>
       </c>
-      <c r="O8">
-        <v>2.121320343559642</v>
-      </c>
-      <c r="P8">
-        <v>81</v>
-      </c>
-      <c r="Q8">
-        <v>81.75</v>
-      </c>
       <c r="R8">
+        <v>83.25</v>
+      </c>
+      <c r="S8">
+        <v>84</v>
+      </c>
+      <c r="T8">
         <v>82.5</v>
-      </c>
-      <c r="S8">
-        <v>83.25</v>
-      </c>
-      <c r="T8">
-        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1011,7 +1010,7 @@
       <c r="C9">
         <v>35</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>35</v>
       </c>
       <c r="F9">
@@ -1035,7 +1034,7 @@
       <c r="M9">
         <v>83</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>83</v>
       </c>
       <c r="P9">
@@ -1065,25 +1064,25 @@
         <v>20.66666666666667</v>
       </c>
       <c r="D10">
+        <v>8.406346808612328</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>15.25</v>
+      </c>
+      <c r="G10">
         <v>16.5</v>
       </c>
-      <c r="E10">
-        <v>8.406346808612328</v>
-      </c>
-      <c r="F10">
-        <v>15</v>
-      </c>
-      <c r="G10">
-        <v>15.25</v>
-      </c>
       <c r="H10">
+        <v>23</v>
+      </c>
+      <c r="I10">
+        <v>36</v>
+      </c>
+      <c r="J10">
         <v>16.5</v>
-      </c>
-      <c r="I10">
-        <v>23</v>
-      </c>
-      <c r="J10">
-        <v>36</v>
       </c>
       <c r="L10">
         <v>6</v>
@@ -1092,25 +1091,25 @@
         <v>84.16666666666667</v>
       </c>
       <c r="N10">
+        <v>0.9831920802501751</v>
+      </c>
+      <c r="O10">
+        <v>83</v>
+      </c>
+      <c r="P10">
+        <v>83.25</v>
+      </c>
+      <c r="Q10">
         <v>84.5</v>
       </c>
-      <c r="O10">
-        <v>0.9831920802501751</v>
-      </c>
-      <c r="P10">
-        <v>83</v>
-      </c>
-      <c r="Q10">
-        <v>83.25</v>
-      </c>
       <c r="R10">
-        <v>84.5</v>
+        <v>85</v>
       </c>
       <c r="S10">
         <v>85</v>
       </c>
       <c r="T10">
-        <v>85</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1124,25 +1123,25 @@
         <v>32.98130841121495</v>
       </c>
       <c r="D11">
+        <v>27.15121224869705</v>
+      </c>
+      <c r="E11">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>19</v>
+      </c>
+      <c r="G11">
         <v>25</v>
       </c>
-      <c r="E11">
-        <v>27.15121224869705</v>
-      </c>
-      <c r="F11">
-        <v>13</v>
-      </c>
-      <c r="G11">
-        <v>19</v>
-      </c>
       <c r="H11">
+        <v>44.5</v>
+      </c>
+      <c r="I11">
+        <v>250</v>
+      </c>
+      <c r="J11">
         <v>25</v>
-      </c>
-      <c r="I11">
-        <v>44.5</v>
-      </c>
-      <c r="J11">
-        <v>250</v>
       </c>
       <c r="L11">
         <v>107</v>
@@ -1151,25 +1150,25 @@
         <v>86.17757009345794</v>
       </c>
       <c r="N11">
+        <v>2.022575810143196</v>
+      </c>
+      <c r="O11">
+        <v>82</v>
+      </c>
+      <c r="P11">
+        <v>85</v>
+      </c>
+      <c r="Q11">
         <v>86</v>
       </c>
-      <c r="O11">
-        <v>2.022575810143196</v>
-      </c>
-      <c r="P11">
-        <v>82</v>
-      </c>
-      <c r="Q11">
-        <v>85</v>
-      </c>
       <c r="R11">
+        <v>87</v>
+      </c>
+      <c r="S11">
+        <v>91</v>
+      </c>
+      <c r="T11">
         <v>86</v>
-      </c>
-      <c r="S11">
-        <v>87</v>
-      </c>
-      <c r="T11">
-        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1183,25 +1182,25 @@
         <v>20.375</v>
       </c>
       <c r="D12">
+        <v>9.197412206938854</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>13.25</v>
+      </c>
+      <c r="G12">
         <v>20.5</v>
       </c>
-      <c r="E12">
-        <v>9.197412206938854</v>
-      </c>
-      <c r="F12">
-        <v>8</v>
-      </c>
-      <c r="G12">
-        <v>13.25</v>
-      </c>
       <c r="H12">
+        <v>25</v>
+      </c>
+      <c r="I12">
+        <v>40</v>
+      </c>
+      <c r="J12">
         <v>20.5</v>
-      </c>
-      <c r="I12">
-        <v>25</v>
-      </c>
-      <c r="J12">
-        <v>40</v>
       </c>
       <c r="L12">
         <v>24</v>
@@ -1210,25 +1209,25 @@
         <v>83.58333333333333</v>
       </c>
       <c r="N12">
-        <v>84</v>
+        <v>1.815792237365102</v>
       </c>
       <c r="O12">
-        <v>1.815792237365102</v>
+        <v>80</v>
       </c>
       <c r="P12">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q12">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R12">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S12">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T12">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1242,25 +1241,25 @@
         <v>37.75</v>
       </c>
       <c r="D13">
-        <v>27</v>
+        <v>25.27680095792714</v>
       </c>
       <c r="E13">
-        <v>25.27680095792714</v>
+        <v>22</v>
       </c>
       <c r="F13">
         <v>22</v>
       </c>
       <c r="G13">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H13">
+        <v>42.75</v>
+      </c>
+      <c r="I13">
+        <v>75</v>
+      </c>
+      <c r="J13">
         <v>27</v>
-      </c>
-      <c r="I13">
-        <v>42.75</v>
-      </c>
-      <c r="J13">
-        <v>75</v>
       </c>
       <c r="L13">
         <v>4</v>
@@ -1269,25 +1268,25 @@
         <v>84.25</v>
       </c>
       <c r="N13">
+        <v>0.9574271077563381</v>
+      </c>
+      <c r="O13">
+        <v>83</v>
+      </c>
+      <c r="P13">
+        <v>83.75</v>
+      </c>
+      <c r="Q13">
         <v>84.5</v>
       </c>
-      <c r="O13">
-        <v>0.9574271077563381</v>
-      </c>
-      <c r="P13">
-        <v>83</v>
-      </c>
-      <c r="Q13">
-        <v>83.75</v>
-      </c>
       <c r="R13">
-        <v>84.5</v>
+        <v>85</v>
       </c>
       <c r="S13">
         <v>85</v>
       </c>
       <c r="T13">
-        <v>85</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1301,25 +1300,25 @@
         <v>25.5</v>
       </c>
       <c r="D14">
+        <v>9.365590516047865</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>17.5</v>
+      </c>
+      <c r="G14">
         <v>25</v>
       </c>
-      <c r="E14">
-        <v>9.365590516047865</v>
-      </c>
-      <c r="F14">
-        <v>13</v>
-      </c>
-      <c r="G14">
-        <v>17.5</v>
-      </c>
       <c r="H14">
+        <v>35.25</v>
+      </c>
+      <c r="I14">
+        <v>36</v>
+      </c>
+      <c r="J14">
         <v>25</v>
-      </c>
-      <c r="I14">
-        <v>35.25</v>
-      </c>
-      <c r="J14">
-        <v>36</v>
       </c>
       <c r="L14">
         <v>8</v>
@@ -1328,25 +1327,25 @@
         <v>84</v>
       </c>
       <c r="N14">
+        <v>1.927248223318863</v>
+      </c>
+      <c r="O14">
+        <v>82</v>
+      </c>
+      <c r="P14">
         <v>83</v>
-      </c>
-      <c r="O14">
-        <v>1.927248223318863</v>
-      </c>
-      <c r="P14">
-        <v>82</v>
       </c>
       <c r="Q14">
         <v>83</v>
       </c>
       <c r="R14">
+        <v>84.75</v>
+      </c>
+      <c r="S14">
+        <v>87</v>
+      </c>
+      <c r="T14">
         <v>83</v>
-      </c>
-      <c r="S14">
-        <v>84.75</v>
-      </c>
-      <c r="T14">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1360,25 +1359,25 @@
         <v>23.46341463414634</v>
       </c>
       <c r="D15">
+        <v>7.324949013391185</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15">
         <v>21</v>
       </c>
-      <c r="E15">
-        <v>7.324949013391185</v>
-      </c>
-      <c r="F15">
-        <v>10</v>
-      </c>
-      <c r="G15">
-        <v>20</v>
-      </c>
       <c r="H15">
+        <v>28</v>
+      </c>
+      <c r="I15">
+        <v>38</v>
+      </c>
+      <c r="J15">
         <v>21</v>
-      </c>
-      <c r="I15">
-        <v>28</v>
-      </c>
-      <c r="J15">
-        <v>38</v>
       </c>
       <c r="L15">
         <v>41</v>
@@ -1387,25 +1386,25 @@
         <v>84.07317073170732</v>
       </c>
       <c r="N15">
-        <v>84</v>
+        <v>1.455854455336093</v>
       </c>
       <c r="O15">
-        <v>1.455854455336093</v>
+        <v>81</v>
       </c>
       <c r="P15">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q15">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R15">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S15">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T15">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1419,25 +1418,25 @@
         <v>22.94623655913978</v>
       </c>
       <c r="D16">
+        <v>10.64245286412619</v>
+      </c>
+      <c r="E16">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>16</v>
+      </c>
+      <c r="G16">
         <v>20</v>
       </c>
-      <c r="E16">
-        <v>10.64245286412619</v>
-      </c>
-      <c r="F16">
-        <v>9</v>
-      </c>
-      <c r="G16">
-        <v>16</v>
-      </c>
       <c r="H16">
+        <v>26</v>
+      </c>
+      <c r="I16">
+        <v>125</v>
+      </c>
+      <c r="J16">
         <v>20</v>
-      </c>
-      <c r="I16">
-        <v>26</v>
-      </c>
-      <c r="J16">
-        <v>125</v>
       </c>
       <c r="L16">
         <v>2604</v>
@@ -1446,25 +1445,25 @@
         <v>87.2315668202765</v>
       </c>
       <c r="N16">
+        <v>2.23661470422187</v>
+      </c>
+      <c r="O16">
+        <v>80</v>
+      </c>
+      <c r="P16">
+        <v>86</v>
+      </c>
+      <c r="Q16">
         <v>87</v>
       </c>
-      <c r="O16">
-        <v>2.23661470422187</v>
-      </c>
-      <c r="P16">
-        <v>80</v>
-      </c>
-      <c r="Q16">
-        <v>86</v>
-      </c>
       <c r="R16">
+        <v>89</v>
+      </c>
+      <c r="S16">
+        <v>94</v>
+      </c>
+      <c r="T16">
         <v>87</v>
-      </c>
-      <c r="S16">
-        <v>89</v>
-      </c>
-      <c r="T16">
-        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1478,25 +1477,25 @@
         <v>21</v>
       </c>
       <c r="D17">
+        <v>8.213071621174715</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>17</v>
+      </c>
+      <c r="G17">
         <v>18</v>
       </c>
-      <c r="E17">
-        <v>8.213071621174715</v>
-      </c>
-      <c r="F17">
-        <v>10</v>
-      </c>
-      <c r="G17">
-        <v>17</v>
-      </c>
       <c r="H17">
+        <v>23.5</v>
+      </c>
+      <c r="I17">
+        <v>50</v>
+      </c>
+      <c r="J17">
         <v>18</v>
-      </c>
-      <c r="I17">
-        <v>23.5</v>
-      </c>
-      <c r="J17">
-        <v>50</v>
       </c>
       <c r="L17">
         <v>23</v>
@@ -1505,25 +1504,25 @@
         <v>84.56521739130434</v>
       </c>
       <c r="N17">
+        <v>2.149547245278362</v>
+      </c>
+      <c r="O17">
+        <v>81</v>
+      </c>
+      <c r="P17">
+        <v>83</v>
+      </c>
+      <c r="Q17">
         <v>85</v>
       </c>
-      <c r="O17">
-        <v>2.149547245278362</v>
-      </c>
-      <c r="P17">
-        <v>81</v>
-      </c>
-      <c r="Q17">
-        <v>83</v>
-      </c>
       <c r="R17">
+        <v>86</v>
+      </c>
+      <c r="S17">
+        <v>90</v>
+      </c>
+      <c r="T17">
         <v>85</v>
-      </c>
-      <c r="S17">
-        <v>86</v>
-      </c>
-      <c r="T17">
-        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1537,25 +1536,25 @@
         <v>13.75</v>
       </c>
       <c r="D18">
+        <v>2.005673770264564</v>
+      </c>
+      <c r="E18">
+        <v>11</v>
+      </c>
+      <c r="F18">
+        <v>12</v>
+      </c>
+      <c r="G18">
         <v>15</v>
-      </c>
-      <c r="E18">
-        <v>2.005673770264564</v>
-      </c>
-      <c r="F18">
-        <v>11</v>
-      </c>
-      <c r="G18">
-        <v>12</v>
       </c>
       <c r="H18">
         <v>15</v>
       </c>
       <c r="I18">
+        <v>17</v>
+      </c>
+      <c r="J18">
         <v>15</v>
-      </c>
-      <c r="J18">
-        <v>17</v>
       </c>
       <c r="L18">
         <v>12</v>
@@ -1564,25 +1563,25 @@
         <v>84.08333333333333</v>
       </c>
       <c r="N18">
-        <v>84</v>
+        <v>1.781640374554423</v>
       </c>
       <c r="O18">
-        <v>1.781640374554423</v>
+        <v>80</v>
       </c>
       <c r="P18">
-        <v>80</v>
+        <v>83.75</v>
       </c>
       <c r="Q18">
-        <v>83.75</v>
+        <v>84</v>
       </c>
       <c r="R18">
-        <v>84</v>
+        <v>84.5</v>
       </c>
       <c r="S18">
-        <v>84.5</v>
+        <v>87</v>
       </c>
       <c r="T18">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1596,25 +1595,25 @@
         <v>36.65808270676692</v>
       </c>
       <c r="D19">
+        <v>20.23545855979859</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>22</v>
+      </c>
+      <c r="G19">
         <v>30</v>
       </c>
-      <c r="E19">
-        <v>20.23545855979859</v>
-      </c>
-      <c r="F19">
-        <v>5</v>
-      </c>
-      <c r="G19">
-        <v>22</v>
-      </c>
       <c r="H19">
+        <v>48</v>
+      </c>
+      <c r="I19">
+        <v>275</v>
+      </c>
+      <c r="J19">
         <v>30</v>
-      </c>
-      <c r="I19">
-        <v>48</v>
-      </c>
-      <c r="J19">
-        <v>275</v>
       </c>
       <c r="L19">
         <v>5320</v>
@@ -1623,25 +1622,25 @@
         <v>89.07312030075188</v>
       </c>
       <c r="N19">
+        <v>2.795282337628729</v>
+      </c>
+      <c r="O19">
+        <v>80</v>
+      </c>
+      <c r="P19">
+        <v>87</v>
+      </c>
+      <c r="Q19">
         <v>89</v>
       </c>
-      <c r="O19">
-        <v>2.795282337628729</v>
-      </c>
-      <c r="P19">
-        <v>80</v>
-      </c>
-      <c r="Q19">
-        <v>87</v>
-      </c>
       <c r="R19">
+        <v>91</v>
+      </c>
+      <c r="S19">
+        <v>99</v>
+      </c>
+      <c r="T19">
         <v>89</v>
-      </c>
-      <c r="S19">
-        <v>91</v>
-      </c>
-      <c r="T19">
-        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1655,25 +1654,25 @@
         <v>23.33333333333333</v>
       </c>
       <c r="D20">
+        <v>8.85836261592932</v>
+      </c>
+      <c r="E20">
+        <v>13</v>
+      </c>
+      <c r="F20">
+        <v>18</v>
+      </c>
+      <c r="G20">
         <v>20.5</v>
       </c>
-      <c r="E20">
-        <v>8.85836261592932</v>
-      </c>
-      <c r="F20">
-        <v>13</v>
-      </c>
-      <c r="G20">
-        <v>18</v>
-      </c>
       <c r="H20">
+        <v>27.25</v>
+      </c>
+      <c r="I20">
+        <v>46</v>
+      </c>
+      <c r="J20">
         <v>20.5</v>
-      </c>
-      <c r="I20">
-        <v>27.25</v>
-      </c>
-      <c r="J20">
-        <v>46</v>
       </c>
       <c r="L20">
         <v>18</v>
@@ -1682,25 +1681,25 @@
         <v>84.55555555555556</v>
       </c>
       <c r="N20">
+        <v>2.280924018700528</v>
+      </c>
+      <c r="O20">
+        <v>80</v>
+      </c>
+      <c r="P20">
+        <v>83.25</v>
+      </c>
+      <c r="Q20">
         <v>85</v>
-      </c>
-      <c r="O20">
-        <v>2.280924018700528</v>
-      </c>
-      <c r="P20">
-        <v>80</v>
-      </c>
-      <c r="Q20">
-        <v>83.25</v>
       </c>
       <c r="R20">
         <v>85</v>
       </c>
       <c r="S20">
+        <v>91</v>
+      </c>
+      <c r="T20">
         <v>85</v>
-      </c>
-      <c r="T20">
-        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1713,7 +1712,7 @@
       <c r="C21">
         <v>25</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>25</v>
       </c>
       <c r="F21">
@@ -1737,7 +1736,7 @@
       <c r="M21">
         <v>90</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>90</v>
       </c>
       <c r="P21">
@@ -1767,25 +1766,25 @@
         <v>25.58888888888889</v>
       </c>
       <c r="D22">
+        <v>10.68222764762133</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22">
         <v>24</v>
       </c>
-      <c r="E22">
-        <v>10.68222764762133</v>
-      </c>
-      <c r="F22">
-        <v>8</v>
-      </c>
-      <c r="G22">
-        <v>20</v>
-      </c>
       <c r="H22">
+        <v>30</v>
+      </c>
+      <c r="I22">
+        <v>80</v>
+      </c>
+      <c r="J22">
         <v>24</v>
-      </c>
-      <c r="I22">
-        <v>30</v>
-      </c>
-      <c r="J22">
-        <v>80</v>
       </c>
       <c r="L22">
         <v>90</v>
@@ -1794,25 +1793,25 @@
         <v>85.35555555555555</v>
       </c>
       <c r="N22">
+        <v>1.862166861005537</v>
+      </c>
+      <c r="O22">
+        <v>80</v>
+      </c>
+      <c r="P22">
+        <v>84</v>
+      </c>
+      <c r="Q22">
         <v>86</v>
       </c>
-      <c r="O22">
-        <v>1.862166861005537</v>
-      </c>
-      <c r="P22">
-        <v>80</v>
-      </c>
-      <c r="Q22">
-        <v>84</v>
-      </c>
       <c r="R22">
+        <v>87</v>
+      </c>
+      <c r="S22">
+        <v>89</v>
+      </c>
+      <c r="T22">
         <v>86</v>
-      </c>
-      <c r="S22">
-        <v>87</v>
-      </c>
-      <c r="T22">
-        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1826,10 +1825,10 @@
         <v>31.66666666666667</v>
       </c>
       <c r="D23">
+        <v>11.54700538379251</v>
+      </c>
+      <c r="E23">
         <v>25</v>
-      </c>
-      <c r="E23">
-        <v>11.54700538379251</v>
       </c>
       <c r="F23">
         <v>25</v>
@@ -1838,13 +1837,13 @@
         <v>25</v>
       </c>
       <c r="H23">
+        <v>35</v>
+      </c>
+      <c r="I23">
+        <v>45</v>
+      </c>
+      <c r="J23">
         <v>25</v>
-      </c>
-      <c r="I23">
-        <v>35</v>
-      </c>
-      <c r="J23">
-        <v>45</v>
       </c>
       <c r="L23">
         <v>3</v>
@@ -1853,10 +1852,10 @@
         <v>84.33333333333333</v>
       </c>
       <c r="N23">
-        <v>84</v>
+        <v>0.5773502691896257</v>
       </c>
       <c r="O23">
-        <v>0.5773502691896257</v>
+        <v>84</v>
       </c>
       <c r="P23">
         <v>84</v>
@@ -1865,13 +1864,13 @@
         <v>84</v>
       </c>
       <c r="R23">
-        <v>84</v>
+        <v>84.5</v>
       </c>
       <c r="S23">
-        <v>84.5</v>
+        <v>85</v>
       </c>
       <c r="T23">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1885,25 +1884,25 @@
         <v>27.29411764705882</v>
       </c>
       <c r="D24">
+        <v>10.23623463960743</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+      <c r="G24">
         <v>25</v>
       </c>
-      <c r="E24">
-        <v>10.23623463960743</v>
-      </c>
-      <c r="F24">
-        <v>10</v>
-      </c>
-      <c r="G24">
-        <v>20</v>
-      </c>
       <c r="H24">
+        <v>32</v>
+      </c>
+      <c r="I24">
+        <v>100</v>
+      </c>
+      <c r="J24">
         <v>25</v>
-      </c>
-      <c r="I24">
-        <v>32</v>
-      </c>
-      <c r="J24">
-        <v>100</v>
       </c>
       <c r="L24">
         <v>731</v>
@@ -1912,25 +1911,25 @@
         <v>85.68946648426812</v>
       </c>
       <c r="N24">
+        <v>2.07612286566263</v>
+      </c>
+      <c r="O24">
+        <v>80</v>
+      </c>
+      <c r="P24">
+        <v>84</v>
+      </c>
+      <c r="Q24">
         <v>86</v>
       </c>
-      <c r="O24">
-        <v>2.07612286566263</v>
-      </c>
-      <c r="P24">
-        <v>80</v>
-      </c>
-      <c r="Q24">
-        <v>84</v>
-      </c>
       <c r="R24">
+        <v>87</v>
+      </c>
+      <c r="S24">
+        <v>92</v>
+      </c>
+      <c r="T24">
         <v>86</v>
-      </c>
-      <c r="S24">
-        <v>87</v>
-      </c>
-      <c r="T24">
-        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1944,25 +1943,25 @@
         <v>32.55786629068265</v>
       </c>
       <c r="D25">
+        <v>18.58036582591037</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>20</v>
+      </c>
+      <c r="G25">
         <v>29</v>
       </c>
-      <c r="E25">
-        <v>18.58036582591037</v>
-      </c>
-      <c r="F25">
-        <v>6</v>
-      </c>
-      <c r="G25">
-        <v>20</v>
-      </c>
       <c r="H25">
+        <v>40</v>
+      </c>
+      <c r="I25">
+        <v>240</v>
+      </c>
+      <c r="J25">
         <v>29</v>
-      </c>
-      <c r="I25">
-        <v>40</v>
-      </c>
-      <c r="J25">
-        <v>240</v>
       </c>
       <c r="L25">
         <v>8511</v>
@@ -1971,25 +1970,25 @@
         <v>88.96580895311949</v>
       </c>
       <c r="N25">
+        <v>2.656810648285102</v>
+      </c>
+      <c r="O25">
+        <v>80</v>
+      </c>
+      <c r="P25">
+        <v>87</v>
+      </c>
+      <c r="Q25">
         <v>89</v>
       </c>
-      <c r="O25">
-        <v>2.656810648285102</v>
-      </c>
-      <c r="P25">
-        <v>80</v>
-      </c>
-      <c r="Q25">
-        <v>87</v>
-      </c>
       <c r="R25">
+        <v>91</v>
+      </c>
+      <c r="S25">
+        <v>100</v>
+      </c>
+      <c r="T25">
         <v>89</v>
-      </c>
-      <c r="S25">
-        <v>91</v>
-      </c>
-      <c r="T25">
-        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2003,25 +2002,25 @@
         <v>18.5</v>
       </c>
       <c r="D26">
+        <v>6.715653356152326</v>
+      </c>
+      <c r="E26">
+        <v>9</v>
+      </c>
+      <c r="F26">
+        <v>17.25</v>
+      </c>
+      <c r="G26">
         <v>18</v>
       </c>
-      <c r="E26">
-        <v>6.715653356152326</v>
-      </c>
-      <c r="F26">
-        <v>9</v>
-      </c>
-      <c r="G26">
-        <v>17.25</v>
-      </c>
       <c r="H26">
+        <v>18.75</v>
+      </c>
+      <c r="I26">
+        <v>30</v>
+      </c>
+      <c r="J26">
         <v>18</v>
-      </c>
-      <c r="I26">
-        <v>18.75</v>
-      </c>
-      <c r="J26">
-        <v>30</v>
       </c>
       <c r="L26">
         <v>6</v>
@@ -2030,10 +2029,10 @@
         <v>88.5</v>
       </c>
       <c r="N26">
+        <v>0.8366600265340756</v>
+      </c>
+      <c r="O26">
         <v>88</v>
-      </c>
-      <c r="O26">
-        <v>0.8366600265340756</v>
       </c>
       <c r="P26">
         <v>88</v>
@@ -2042,13 +2041,13 @@
         <v>88</v>
       </c>
       <c r="R26">
+        <v>88.75</v>
+      </c>
+      <c r="S26">
+        <v>90</v>
+      </c>
+      <c r="T26">
         <v>88</v>
-      </c>
-      <c r="S26">
-        <v>88.75</v>
-      </c>
-      <c r="T26">
-        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/02-output/wine_country_stats/Q2E_US.xlsx
+++ b/02-output/wine_country_stats/Q2E_US.xlsx
@@ -14,18 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Statistic</t>
   </si>
   <si>
-    <t>US price price</t>
-  </si>
-  <si>
-    <t>_1</t>
-  </si>
-  <si>
-    <t>US points points</t>
+    <t>US_priceprice</t>
+  </si>
+  <si>
+    <t>US_pointspoints</t>
   </si>
   <si>
     <t>Count</t>
@@ -407,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -419,12 +416,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,95 +429,92 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
       </c>
       <c r="B2">
         <v>53351</v>
       </c>
-      <c r="D2">
+      <c r="C2">
         <v>53351</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>36.83100597926936</v>
       </c>
-      <c r="D3">
+      <c r="C3">
         <v>88.60263162827313</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>27.18313894880103</v>
       </c>
-      <c r="D4">
+      <c r="C4">
         <v>3.106451823837246</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="C5">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>20</v>
       </c>
-      <c r="D6">
+      <c r="C6">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>30</v>
       </c>
-      <c r="D7">
+      <c r="C7">
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>45</v>
       </c>
-      <c r="D8">
+      <c r="C8">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>2013</v>
       </c>
-      <c r="D9">
+      <c r="C9">
         <v>100</v>
       </c>
     </row>
